--- a/src/backend/tmp_data/GeekBrains.xlsx
+++ b/src/backend/tmp_data/GeekBrains.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matvejsaprykin/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6C70D7-D179-CD44-AD3D-7D77C9D77854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
   <si>
     <t>Ссылка на курс</t>
   </si>
@@ -35,12 +44,6 @@
   </si>
   <si>
     <t>Период обучения</t>
-  </si>
-  <si>
-    <t>Стоимость</t>
-  </si>
-  <si>
-    <t>Вопросы</t>
   </si>
   <si>
     <t>https://gb.ru/s/ai-integration-specialist</t>
@@ -123,9 +126,6 @@
 Изучите колесо компетенций и матрицу Декарта. Познакомитесь со специализациями и выберете дальнейшее направление развития.
 Математика и информатика для программистов. Видеокурс
 Дополнительный курс, в котором вы восполните необходимые базовые знания по математике. Курс позволит облегчить вхождение в профессию.</t>
-  </si>
-  <si>
-    <t>Тут курс в середине делится на целых пять, что делать???</t>
   </si>
   <si>
     <t>https://gb.ru/geek_university/developer/programmer/python-gb</t>
@@ -1762,26 +1762,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1789,42 +1797,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2014,32 +2025,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="50.0"/>
-    <col customWidth="1" min="2" max="2" width="25.13"/>
-    <col customWidth="1" min="3" max="3" width="9.88"/>
-    <col customWidth="1" min="4" max="4" width="25.5"/>
-    <col customWidth="1" min="5" max="5" width="125.5"/>
-    <col customWidth="1" min="6" max="6" width="25.75"/>
-    <col customWidth="1" min="7" max="7" width="68.38"/>
-    <col customWidth="1" min="8" max="8" width="25.25"/>
-    <col customWidth="1" min="9" max="9" width="25.38"/>
-    <col customWidth="1" min="10" max="10" width="51.0"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="125.5" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="68.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2064,646 +2078,634 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="H5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="21.0" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="H11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="H12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="1">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="1">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="14" ht="18.0" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="H14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="H15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="16" ht="18.0" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="H16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="H17" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="1">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="18" ht="18.0" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="H18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="1">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="H19" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="H20" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="21" ht="18.0" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="H21" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="H22" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="23" ht="18.0" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="H23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="H24" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="1">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="H25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="1">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="H26" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H26" s="1">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="27" ht="18.0" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="H27" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H27" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="28" ht="20.25" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="G28" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="H28" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="H29" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
-    <hyperlink r:id="rId26" ref="A27"/>
-    <hyperlink r:id="rId27" ref="A28"/>
-    <hyperlink r:id="rId28" ref="A29"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
-  <drawing r:id="rId29"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>